--- a/PSOutputFiles/StorageAccProps.xlsx
+++ b/PSOutputFiles/StorageAccProps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>SubscriptionName</t>
   </si>
@@ -236,6 +236,12 @@
     <t>eservicesregistrationfunctions</t>
   </si>
   <si>
+    <t>finditystore</t>
+  </si>
+  <si>
+    <t>findityintegration</t>
+  </si>
+  <si>
     <t>fintransmatch</t>
   </si>
   <si>
@@ -374,6 +380,12 @@
     <t>APP-HRS</t>
   </si>
   <si>
+    <t>pdfmergefunctionprod</t>
+  </si>
+  <si>
+    <t>pdfmergefunction</t>
+  </si>
+  <si>
     <t>pis2empmigfunction</t>
   </si>
   <si>
@@ -491,55 +503,49 @@
     <t>Hogia Star - Test Environment</t>
   </si>
   <si>
-    <t>moveaccdoctest</t>
+    <t>openbusinessstoretest</t>
   </si>
   <si>
     <t>HBP</t>
   </si>
   <si>
-    <t>mypayslipapitest</t>
+    <t>orderpricecalctest</t>
+  </si>
+  <si>
+    <t>FASTIGHET</t>
+  </si>
+  <si>
+    <t>ordersvcstoragetest</t>
+  </si>
+  <si>
+    <t>orderservicetest</t>
+  </si>
+  <si>
+    <t>orderworkflowmanagertest</t>
+  </si>
+  <si>
+    <t>APP-HLS</t>
+  </si>
+  <si>
+    <t>orioneventhubstoragetest</t>
+  </si>
+  <si>
+    <t>orionfunctionstoragetest</t>
+  </si>
+  <si>
+    <t>orionrealtimeinfofuntest</t>
+  </si>
+  <si>
+    <t>pachangeactivatortest</t>
+  </si>
+  <si>
+    <t>pachangeactivatorfunctiontest</t>
+  </si>
+  <si>
+    <t>paymentreportex</t>
   </si>
   <si>
     <t>HR_SYSTEMS</t>
-  </si>
-  <si>
-    <t>openbusinessstoretest</t>
-  </si>
-  <si>
-    <t>orderpricecalctest</t>
-  </si>
-  <si>
-    <t>FASTIGHET</t>
-  </si>
-  <si>
-    <t>ordersvcstoragetest</t>
-  </si>
-  <si>
-    <t>orderservicetest</t>
-  </si>
-  <si>
-    <t>orderworkflowmanagertest</t>
-  </si>
-  <si>
-    <t>APP-HLS</t>
-  </si>
-  <si>
-    <t>orioneventhubstoragetest</t>
-  </si>
-  <si>
-    <t>orionfunctionstoragetest</t>
-  </si>
-  <si>
-    <t>orionrealtimeinfofuntest</t>
-  </si>
-  <si>
-    <t>pachangeactivatortest</t>
-  </si>
-  <si>
-    <t>pachangeactivatorfunctiontest</t>
-  </si>
-  <si>
-    <t>paymentreportex</t>
   </si>
   <si>
     <t>payrepmantestv1</t>
@@ -765,8 +771,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="22" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
@@ -778,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="storageprops" displayName="storageprops" ref="A1:X81" headerRowCount="1">
-  <autoFilter ref="A1:X140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="storageprops" displayName="storageprops" ref="A1:X83" headerRowCount="1">
+  <autoFilter ref="A1:X81"/>
   <tableColumns count="24">
     <tableColumn id="1" name="SubscriptionName"/>
     <tableColumn id="2" name="StorageAccount"/>
@@ -934,8 +941,8 @@
       <c r="E2" s="0">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
-        <v>45038.3197534838</v>
+      <c r="F2" s="3">
+        <v>45045.55181357639</v>
       </c>
       <c r="G2" s="0">
         <v>35</v>
@@ -1081,8 +1088,8 @@
       <c r="E5" s="0">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
-        <v>45038.31977174769</v>
+      <c r="F5" s="3">
+        <v>45045.5518309375</v>
       </c>
       <c r="G5" s="0">
         <v>35</v>
@@ -1242,7 +1249,7 @@
       <c r="E9" s="0">
         <v>29</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>45065.38062243056</v>
       </c>
       <c r="G9" s="0">
@@ -1298,8 +1305,8 @@
       <c r="E10" s="0">
         <v>30</v>
       </c>
-      <c r="F10" s="2">
-        <v>45038.319793993054</v>
+      <c r="F10" s="3">
+        <v>45045.5518627662</v>
       </c>
       <c r="G10" s="0">
         <v>35</v>
@@ -1404,7 +1411,7 @@
       <c r="E12" s="0">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>45065.50824196759</v>
       </c>
       <c r="G12" s="0">
@@ -1460,8 +1467,8 @@
       <c r="E13" s="0">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
-        <v>45038.31980701389</v>
+      <c r="F13" s="3">
+        <v>45045.55187578704</v>
       </c>
       <c r="G13" s="0">
         <v>35</v>
@@ -1627,8 +1634,8 @@
       <c r="E17" s="0">
         <v>30</v>
       </c>
-      <c r="F17" s="2">
-        <v>45038.3198240162</v>
+      <c r="F17" s="3">
+        <v>45045.55189206018</v>
       </c>
       <c r="G17" s="0">
         <v>35</v>
@@ -1777,8 +1784,8 @@
       <c r="E20" s="0">
         <v>25</v>
       </c>
-      <c r="F20" s="2">
-        <v>45043.319836319446</v>
+      <c r="F20" s="3">
+        <v>45050.55190417824</v>
       </c>
       <c r="G20" s="0">
         <v>30</v>
@@ -1833,8 +1840,8 @@
       <c r="E21" s="0">
         <v>30</v>
       </c>
-      <c r="F21" s="2">
-        <v>45038.319840289354</v>
+      <c r="F21" s="3">
+        <v>45045.55190815972</v>
       </c>
       <c r="G21" s="0">
         <v>35</v>
@@ -1889,8 +1896,8 @@
       <c r="E22" s="0">
         <v>30</v>
       </c>
-      <c r="F22" s="2">
-        <v>45038.31984553241</v>
+      <c r="F22" s="3">
+        <v>45045.55191212963</v>
       </c>
       <c r="G22" s="0">
         <v>35</v>
@@ -1945,8 +1952,8 @@
       <c r="E23" s="0">
         <v>30</v>
       </c>
-      <c r="F23" s="2">
-        <v>45038.31985024305</v>
+      <c r="F23" s="3">
+        <v>45045.55191646991</v>
       </c>
       <c r="G23" s="0">
         <v>35</v>
@@ -2092,8 +2099,8 @@
       <c r="E26" s="0">
         <v>30</v>
       </c>
-      <c r="F26" s="2">
-        <v>45038.31986253472</v>
+      <c r="F26" s="3">
+        <v>45045.55192949074</v>
       </c>
       <c r="G26" s="0">
         <v>35</v>
@@ -2184,16 +2191,34 @@
         <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+      <c r="D28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45072.3028849537</v>
+      </c>
+      <c r="G28" s="0">
+        <v>31</v>
       </c>
       <c r="H28" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="b">
+        <v>1</v>
+      </c>
       <c r="P28" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>28</v>
@@ -2201,7 +2226,16 @@
       <c r="R28" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="U28" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="V28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2244,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="G29" s="0">
         <v>30</v>
       </c>
       <c r="H29" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>28</v>
@@ -2251,25 +2285,31 @@
         <v>24</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="G30" s="0">
+        <v>30</v>
+      </c>
+      <c r="H30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="Q30" s="0" t="s">
         <v>28</v>
       </c>
       <c r="R30" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="V30" s="0" t="b">
         <v>1</v>
@@ -2301,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>28</v>
@@ -2348,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>28</v>
@@ -2386,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="b">
         <v>0</v>
@@ -2427,19 +2467,19 @@
         <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>30</v>
       </c>
       <c r="F34" s="2">
-        <v>45038.31989924768</v>
+        <v>45040.29418568287</v>
       </c>
       <c r="G34" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H34" s="0" t="b">
         <v>1</v>
@@ -2448,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>27</v>
@@ -2480,16 +2520,22 @@
         <v>24</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="0">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45045.55196548611</v>
       </c>
       <c r="G35" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H35" s="0" t="b">
         <v>1</v>
@@ -2498,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>27</v>
@@ -2535,12 +2581,24 @@
       <c r="C36" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="D36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0">
+        <v>7</v>
+      </c>
       <c r="H36" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="0" t="b">
+        <v>0</v>
+      </c>
       <c r="P36" s="0" t="s">
         <v>27</v>
       </c>
@@ -2554,6 +2612,9 @@
         <v>30</v>
       </c>
       <c r="V36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2565,7 +2626,7 @@
         <v>91</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" s="0" t="b">
         <v>0</v>
@@ -2586,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>28</v>
@@ -2612,7 +2673,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>93</v>
@@ -2633,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>28</v>
@@ -2662,7 +2723,7 @@
         <v>94</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="0" t="b">
         <v>0</v>
@@ -2694,10 +2755,10 @@
         <v>24</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D40" s="0" t="b">
         <v>0</v>
@@ -2715,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>28</v>
@@ -2738,10 +2799,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D41" s="0" t="b">
         <v>0</v>
@@ -2759,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>28</v>
@@ -2782,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>98</v>
@@ -2803,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>28</v>
@@ -2818,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2838,13 +2899,13 @@
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <v>45048.31994210648</v>
+        <v>45050.294218599534</v>
       </c>
       <c r="G43" s="0">
         <v>25</v>
       </c>
       <c r="H43" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="0" t="b">
         <v>0</v>
@@ -2856,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>28</v>
@@ -2885,16 +2946,34 @@
         <v>101</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>41</v>
+        <v>102</v>
+      </c>
+      <c r="D44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45055.55201738426</v>
+      </c>
+      <c r="G44" s="0">
+        <v>25</v>
       </c>
       <c r="H44" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="b">
+        <v>1</v>
+      </c>
       <c r="P44" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>28</v>
@@ -2902,7 +2981,16 @@
       <c r="R44" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="U44" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="V44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X44" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2911,10 +2999,10 @@
         <v>24</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H45" s="0" t="b">
         <v>0</v>
@@ -2923,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>28</v>
@@ -2943,19 +3031,19 @@
         <v>104</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G46" s="0">
         <v>30</v>
       </c>
       <c r="H46" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>28</v>
@@ -2978,16 +3066,19 @@
         <v>24</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="G47" s="0">
+        <v>30</v>
+      </c>
       <c r="H47" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="0" t="b">
         <v>0</v>
@@ -2999,13 +3090,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="R47" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="V47" s="0" t="b">
         <v>1</v>
@@ -3022,10 +3116,10 @@
         <v>24</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D48" s="0" t="b">
         <v>0</v>
@@ -3034,7 +3128,7 @@
         <v>7</v>
       </c>
       <c r="H48" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0" t="b">
         <v>0</v>
@@ -3058,6 +3152,9 @@
         <v>1</v>
       </c>
       <c r="W48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3066,22 +3163,22 @@
         <v>24</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D49" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>30</v>
       </c>
       <c r="F49" s="2">
-        <v>45038.31996887732</v>
+        <v>45040.29423994213</v>
       </c>
       <c r="G49" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H49" s="0" t="b">
         <v>1</v>
@@ -3090,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="0" t="s">
         <v>27</v>
@@ -3113,23 +3210,44 @@
       <c r="V49" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="W49" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="D50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0">
+        <v>30</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45045.55204523148</v>
+      </c>
+      <c r="G50" s="0">
+        <v>35</v>
       </c>
       <c r="H50" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="0" t="b">
+        <v>1</v>
+      </c>
       <c r="P50" s="0" t="s">
         <v>27</v>
       </c>
@@ -3138,6 +3256,12 @@
       </c>
       <c r="R50" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="V50" s="0" t="b">
         <v>1</v>
@@ -3148,22 +3272,22 @@
         <v>24</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="G51" s="0">
         <v>30</v>
       </c>
       <c r="H51" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>28</v>
@@ -3189,28 +3313,28 @@
         <v>111</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0">
+        <v>30</v>
+      </c>
+      <c r="H52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0">
-        <v>7</v>
-      </c>
-      <c r="H52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>28</v>
@@ -3239,10 +3363,10 @@
         <v>24</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H53" s="0" t="b">
         <v>0</v>
@@ -3268,7 +3392,7 @@
         <v>24</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>32</v>
@@ -3297,7 +3421,7 @@
         <v>24</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>32</v>
@@ -3309,7 +3433,10 @@
         <v>0</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="R55" s="0" t="s">
         <v>29</v>
@@ -3323,10 +3450,10 @@
         <v>24</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D56" s="0" t="b">
         <v>0</v>
@@ -3344,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>28</v>
@@ -3367,7 +3494,7 @@
         <v>117</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D57" s="0" t="b">
         <v>0</v>
@@ -3414,22 +3541,22 @@
         <v>24</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G58" s="0">
         <v>30</v>
       </c>
       <c r="H58" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>28</v>
@@ -3458,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H59" s="0" t="b">
         <v>1</v>
@@ -3473,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>28</v>
@@ -3502,25 +3629,31 @@
         <v>122</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D60" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E60" s="0">
+        <v>30</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45070.473406296296</v>
       </c>
       <c r="G60" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H60" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="K60" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="0" t="s">
         <v>27</v>
@@ -3552,13 +3685,16 @@
         <v>24</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="D61" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H61" s="0" t="b">
         <v>1</v>
@@ -3566,6 +3702,12 @@
       <c r="J61" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="b">
+        <v>0</v>
+      </c>
       <c r="P61" s="0" t="s">
         <v>27</v>
       </c>
@@ -3579,6 +3721,9 @@
         <v>1</v>
       </c>
       <c r="W61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3587,10 +3732,10 @@
         <v>24</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H62" s="0" t="b">
         <v>0</v>
@@ -3599,7 +3744,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="R62" s="0" t="s">
         <v>29</v>
@@ -3613,16 +3761,19 @@
         <v>24</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D63" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="G63" s="0">
+        <v>7</v>
+      </c>
       <c r="H63" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="0" t="b">
         <v>0</v>
@@ -3657,10 +3808,10 @@
         <v>24</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D64" s="0" t="b">
         <v>0</v>
@@ -3669,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="H64" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0" t="b">
         <v>0</v>
@@ -3681,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q64" s="0" t="s">
         <v>28</v>
@@ -3701,10 +3852,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D65" s="0" t="b">
         <v>0</v>
@@ -3725,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>28</v>
@@ -3751,10 +3902,13 @@
         <v>24</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D66" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="G66" s="0">
         <v>30</v>
@@ -3765,8 +3919,14 @@
       <c r="J66" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="b">
+        <v>0</v>
+      </c>
       <c r="P66" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>28</v>
@@ -3789,10 +3949,10 @@
         <v>24</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H67" s="0" t="b">
         <v>0</v>
@@ -3801,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>28</v>
@@ -3818,10 +3978,10 @@
         <v>24</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G68" s="0">
         <v>30</v>
@@ -3833,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q68" s="0" t="s">
         <v>28</v>
@@ -3847,16 +4007,19 @@
       <c r="V68" s="0" t="b">
         <v>1</v>
       </c>
+      <c r="W68" s="0" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D69" s="0" t="b">
         <v>0</v>
@@ -3905,8 +4068,11 @@
       <c r="D70" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="G70" s="0">
+        <v>30</v>
+      </c>
       <c r="H70" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="0" t="b">
         <v>0</v>
@@ -3918,13 +4084,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Q70" s="0" t="s">
         <v>28</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T70" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="V70" s="0" t="b">
         <v>1</v>
@@ -3944,7 +4113,10 @@
         <v>139</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>59</v>
+        <v>140</v>
+      </c>
+      <c r="D71" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H71" s="0" t="b">
         <v>0</v>
@@ -3952,8 +4124,14 @@
       <c r="J71" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="b">
+        <v>0</v>
+      </c>
       <c r="P71" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>28</v>
@@ -3965,6 +4143,9 @@
         <v>1</v>
       </c>
       <c r="W71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X71" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3973,10 +4154,13 @@
         <v>24</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="D72" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="H72" s="0" t="b">
         <v>0</v>
@@ -3984,6 +4168,12 @@
       <c r="J72" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="0" t="b">
+        <v>0</v>
+      </c>
       <c r="P72" s="0" t="s">
         <v>27</v>
       </c>
@@ -3994,6 +4184,12 @@
         <v>29</v>
       </c>
       <c r="V72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X72" s="0" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4002,10 +4198,10 @@
         <v>24</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="H73" s="0" t="b">
         <v>0</v>
@@ -4014,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>28</v>
@@ -4034,7 +4230,7 @@
         <v>144</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D74" s="0" t="b">
         <v>1</v>
@@ -4043,13 +4239,13 @@
         <v>30</v>
       </c>
       <c r="F74" s="2">
-        <v>45038.32007828703</v>
+        <v>45040.29433362268</v>
       </c>
       <c r="G74" s="0">
         <v>35</v>
       </c>
       <c r="H74" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="0" t="b">
         <v>0</v>
@@ -4090,10 +4286,10 @@
         <v>24</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H75" s="0" t="b">
         <v>0</v>
@@ -4119,16 +4315,22 @@
         <v>24</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="D76" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E76" s="0">
+        <v>30</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45045.55216151621</v>
       </c>
       <c r="G76" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H76" s="0" t="b">
         <v>1</v>
@@ -4137,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="0" t="s">
         <v>27</v>
@@ -4150,6 +4352,9 @@
       </c>
       <c r="R76" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T76" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="U76" s="0" t="s">
         <v>30</v>
@@ -4169,10 +4374,10 @@
         <v>24</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D77" s="0" t="b">
         <v>0</v>
@@ -4181,7 +4386,7 @@
         <v>7</v>
       </c>
       <c r="H77" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="0" t="b">
         <v>0</v>
@@ -4231,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="R78" s="0" t="s">
         <v>29</v>
@@ -4251,10 +4456,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="D79" s="0" t="b">
         <v>0</v>
@@ -4301,11 +4506,11 @@
         <v>24</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D80" s="0" t="b">
         <v>1</v>
       </c>
@@ -4313,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="F80" s="2">
-        <v>45038.32010993056</v>
+        <v>45040.29435549769</v>
       </c>
       <c r="G80" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H80" s="0" t="b">
         <v>1</v>
@@ -4331,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>29</v>
@@ -4357,22 +4562,22 @@
         <v>24</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D81" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0">
         <v>14</v>
       </c>
       <c r="F81" s="2">
-        <v>45054.3201141088</v>
+        <v>45056.29435935185</v>
       </c>
       <c r="G81" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H81" s="0" t="b">
         <v>1</v>
@@ -4381,13 +4586,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="0">
         <v>90</v>
       </c>
       <c r="M81" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" s="0" t="s">
         <v>27</v>
@@ -4396,7 +4601,7 @@
         <v>28</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="U81" s="0" t="s">
         <v>30</v>
@@ -4413,20 +4618,38 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="C82" s="0" t="s">
-        <v>160</v>
+        <v>36</v>
+      </c>
+      <c r="D82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0">
+        <v>30</v>
+      </c>
+      <c r="F82" s="3">
+        <v>45045.5521897338</v>
+      </c>
+      <c r="G82" s="0">
+        <v>35</v>
       </c>
       <c r="H82" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="K82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="0" t="b">
+        <v>1</v>
+      </c>
       <c r="P82" s="0" t="s">
         <v>27</v>
       </c>
@@ -4435,6 +4658,9 @@
       </c>
       <c r="R82" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="T82" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="V82" s="0" t="b">
         <v>1</v>
@@ -4442,57 +4668,72 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="0">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45061.552193587966</v>
+      </c>
+      <c r="G83" s="0">
+        <v>30</v>
+      </c>
+      <c r="H83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="0">
+        <v>90</v>
+      </c>
+      <c r="M83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R83" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D83" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" s="0">
-        <v>7</v>
-      </c>
-      <c r="H83" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P83" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q83" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>29</v>
+      <c r="U83" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="V83" s="0" t="b">
         <v>1</v>
       </c>
       <c r="W83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="X83" s="0" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>163</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H84" s="0" t="b">
         <v>0</v>
@@ -4515,13 +4756,13 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H85" s="0" t="b">
         <v>0</v>
@@ -4541,13 +4782,13 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H86" s="0" t="b">
         <v>0</v>
@@ -4556,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q86" s="0" t="s">
         <v>28</v>
@@ -4573,13 +4814,13 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H87" s="0" t="b">
         <v>0</v>
@@ -4599,10 +4840,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>32</v>
@@ -4628,10 +4869,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>32</v>
@@ -4657,10 +4898,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>32</v>
@@ -4686,13 +4927,13 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H91" s="0" t="b">
         <v>0</v>
@@ -4712,13 +4953,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H92" s="0" t="b">
         <v>0</v>
@@ -4741,13 +4982,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H93" s="0" t="b">
         <v>0</v>
@@ -4770,13 +5011,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D94" s="0" t="b">
         <v>1</v>
@@ -4826,13 +5067,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D95" s="0" t="b">
         <v>0</v>
@@ -4870,10 +5111,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>32</v>
@@ -4899,13 +5140,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" s="0" t="b">
         <v>0</v>
@@ -4926,7 +5167,7 @@
         <v>27</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R97" s="0" t="s">
         <v>29</v>
@@ -4946,10 +5187,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>32</v>
@@ -4981,13 +5222,13 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D99" s="0" t="b">
         <v>0</v>
@@ -5028,13 +5269,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D100" s="0" t="b">
         <v>0</v>
@@ -5055,7 +5296,7 @@
         <v>27</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R100" s="0" t="s">
         <v>29</v>
@@ -5075,13 +5316,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H101" s="0" t="b">
         <v>0</v>
@@ -5101,13 +5342,13 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D102" s="0" t="b">
         <v>0</v>
@@ -5145,13 +5386,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H103" s="0" t="b">
         <v>0</v>
@@ -5171,13 +5412,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H104" s="0" t="b">
         <v>0</v>
@@ -5186,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>28</v>
@@ -5203,13 +5444,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H105" s="0" t="b">
         <v>0</v>
@@ -5232,13 +5473,13 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G106" s="0">
         <v>30</v>
@@ -5264,13 +5505,13 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H107" s="0" t="b">
         <v>0</v>
@@ -5290,13 +5531,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G108" s="0">
         <v>7</v>
@@ -5308,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>28</v>
@@ -5322,13 +5563,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D109" s="0" t="b">
         <v>0</v>
@@ -5369,10 +5610,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>32</v>
@@ -5395,13 +5636,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D111" s="0" t="b">
         <v>1</v>
@@ -5454,13 +5695,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H112" s="0" t="b">
         <v>0</v>
@@ -5480,13 +5721,13 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H113" s="0" t="b">
         <v>0</v>
@@ -5506,13 +5747,13 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H114" s="0" t="b">
         <v>0</v>
@@ -5535,13 +5776,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H115" s="0" t="b">
         <v>0</v>
@@ -5567,13 +5808,13 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H116" s="0" t="b">
         <v>0</v>
@@ -5596,13 +5837,13 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H117" s="0" t="b">
         <v>0</v>
@@ -5622,13 +5863,13 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H118" s="0" t="b">
         <v>0</v>
@@ -5648,13 +5889,13 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H119" s="0" t="b">
         <v>0</v>
@@ -5674,13 +5915,13 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H120" s="0" t="b">
         <v>0</v>
@@ -5700,13 +5941,13 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H121" s="0" t="b">
         <v>0</v>
@@ -5726,13 +5967,13 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H122" s="0" t="b">
         <v>0</v>
@@ -5752,13 +5993,13 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H123" s="0" t="b">
         <v>0</v>
@@ -5778,13 +6019,13 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H124" s="0" t="b">
         <v>0</v>
@@ -5804,13 +6045,13 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H125" s="0" t="b">
         <v>0</v>
@@ -5830,13 +6071,13 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H126" s="0" t="b">
         <v>0</v>
@@ -5856,13 +6097,13 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H127" s="0" t="b">
         <v>0</v>
@@ -5882,13 +6123,13 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H128" s="0" t="b">
         <v>0</v>
@@ -5908,13 +6149,13 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D129" s="0" t="b">
         <v>0</v>
@@ -5952,13 +6193,13 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H130" s="0" t="b">
         <v>0</v>
@@ -5981,13 +6222,13 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H131" s="0" t="b">
         <v>0</v>
@@ -6010,13 +6251,13 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H132" s="0" t="b">
         <v>0</v>
@@ -6039,13 +6280,13 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H133" s="0" t="b">
         <v>0</v>
@@ -6074,13 +6315,13 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D134" s="0" t="b">
         <v>0</v>
@@ -6121,13 +6362,13 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H135" s="0" t="b">
         <v>0</v>
@@ -6136,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R135" s="0" t="s">
         <v>29</v>
@@ -6150,13 +6391,13 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H136" s="0" t="b">
         <v>0</v>
@@ -6176,13 +6417,13 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H137" s="0" t="b">
         <v>0</v>
@@ -6202,13 +6443,13 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D138" s="0" t="b">
         <v>0</v>
@@ -6246,13 +6487,13 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H139" s="0" t="b">
         <v>0</v>
@@ -6284,13 +6525,13 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H140" s="0" t="b">
         <v>0</v>

--- a/PSOutputFiles/StorageAccProps.xlsx
+++ b/PSOutputFiles/StorageAccProps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.castro\Source\HSPowerTools\PSOutputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB490EB1-3129-4D76-9FD3-67A613780A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9240E5-97F6-4249-B53E-1A8C5F0E6EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="158">
   <si>
     <t>SubscriptionName</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>DeleteRetentionPolicy</t>
-  </si>
-  <si>
-    <t>DeleteRetentionInDays</t>
   </si>
   <si>
     <t>AllowPermDelete</t>
@@ -563,12 +560,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="storageprops" displayName="storageprops" ref="A1:U83">
-  <autoFilter ref="A1:U83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U83">
-    <sortCondition descending="1" ref="L1:L83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="storageprops" displayName="storageprops" ref="A1:T83">
+  <autoFilter ref="A1:T83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T83">
+    <sortCondition descending="1" ref="K1:K83"/>
   </sortState>
-  <tableColumns count="21">
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SubscriptionName"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="StorageAccount"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ResourceGroup"/>
@@ -577,7 +574,6 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MinRestoreTime"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="RetentionPolicyDays"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DeleteRetentionPolicy"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DeleteRetentionInDays"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="AllowPermDelete"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ChangedFeedEnabled"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ChangeFeedRetention"/>
@@ -892,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S51"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,22 +904,21 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,19 +979,16 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1013,29 +1005,32 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
+        <v>157</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -1043,19 +1038,16 @@
       <c r="T2" t="b">
         <v>1</v>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>154</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1072,17 +1064,20 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
         <v>90</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>24</v>
@@ -1090,11 +1085,11 @@
       <c r="O3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
-        <v>27</v>
+      <c r="R3" t="b">
+        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
@@ -1102,19 +1097,16 @@
       <c r="T3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1131,14 +1123,17 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
       <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
@@ -1146,11 +1141,11 @@
       <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
-        <v>27</v>
+      <c r="R4" t="b">
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
@@ -1158,19 +1153,16 @@
       <c r="T4" t="b">
         <v>1</v>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1187,26 +1179,29 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>26</v>
       </c>
-      <c r="R5" t="s">
-        <v>27</v>
+      <c r="R5" t="b">
+        <v>1</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
@@ -1214,19 +1209,16 @@
       <c r="T5" t="b">
         <v>1</v>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1243,14 +1235,17 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
       <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
@@ -1258,11 +1253,11 @@
       <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>26</v>
       </c>
-      <c r="R6" t="s">
-        <v>27</v>
+      <c r="R6" t="b">
+        <v>1</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
@@ -1270,19 +1265,16 @@
       <c r="T6" t="b">
         <v>1</v>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1299,14 +1291,17 @@
       <c r="H7" t="b">
         <v>1</v>
       </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
       </c>
       <c r="N7" t="s">
         <v>24</v>
@@ -1314,11 +1309,11 @@
       <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
-        <v>27</v>
+      <c r="R7" t="b">
+        <v>1</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1326,19 +1321,16 @@
       <c r="T7" t="b">
         <v>1</v>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
         <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1355,26 +1347,29 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -1382,19 +1377,16 @@
       <c r="T8" t="b">
         <v>1</v>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1411,14 +1403,17 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -1426,11 +1421,11 @@
       <c r="O9" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>26</v>
       </c>
-      <c r="R9" t="s">
-        <v>27</v>
+      <c r="R9" t="b">
+        <v>1</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -1438,19 +1433,16 @@
       <c r="T9" t="b">
         <v>1</v>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1467,14 +1459,17 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
@@ -1483,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" t="s">
-        <v>27</v>
+      <c r="R10" t="b">
+        <v>1</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -1497,19 +1492,16 @@
       <c r="T10" t="b">
         <v>1</v>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1526,14 +1518,17 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
@@ -1541,11 +1536,11 @@
       <c r="O11" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
-      <c r="R11" t="s">
-        <v>27</v>
+      <c r="R11" t="b">
+        <v>1</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1553,19 +1548,16 @@
       <c r="T11" t="b">
         <v>1</v>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1582,14 +1574,17 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
       <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -1597,11 +1592,11 @@
       <c r="O12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="R12" t="s">
-        <v>27</v>
+      <c r="R12" t="b">
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -1609,19 +1604,16 @@
       <c r="T12" t="b">
         <v>1</v>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1638,14 +1630,17 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1654,30 +1649,27 @@
         <v>25</v>
       </c>
       <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" t="s">
-        <v>27</v>
+      <c r="R13" t="b">
+        <v>1</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
       </c>
-      <c r="T13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1694,14 +1686,17 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
       </c>
       <c r="N14" t="s">
         <v>24</v>
@@ -1710,30 +1705,27 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
+      <c r="R14" t="b">
+        <v>1</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
       </c>
-      <c r="T14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1750,14 +1742,17 @@
       <c r="H15" t="b">
         <v>1</v>
       </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
       </c>
       <c r="N15" t="s">
         <v>24</v>
@@ -1766,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
+      <c r="R15" t="b">
+        <v>1</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
@@ -1780,19 +1775,16 @@
       <c r="T15" t="b">
         <v>1</v>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1809,14 +1801,17 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
       </c>
       <c r="N16" t="s">
         <v>24</v>
@@ -1825,24 +1820,21 @@
         <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>33</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1859,14 +1851,17 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -1874,11 +1869,11 @@
       <c r="O17" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>26</v>
       </c>
-      <c r="R17" t="s">
-        <v>27</v>
+      <c r="R17" t="b">
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>1</v>
@@ -1886,19 +1881,16 @@
       <c r="T17" t="b">
         <v>1</v>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1915,14 +1907,17 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
@@ -1930,11 +1925,11 @@
       <c r="O18" t="s">
         <v>25</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
-      <c r="R18" t="s">
-        <v>27</v>
+      <c r="R18" t="b">
+        <v>1</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
@@ -1942,19 +1937,16 @@
       <c r="T18" t="b">
         <v>1</v>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1971,14 +1963,17 @@
       <c r="H19" t="b">
         <v>1</v>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
       </c>
       <c r="N19" t="s">
         <v>24</v>
@@ -1987,13 +1982,13 @@
         <v>25</v>
       </c>
       <c r="P19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" t="s">
         <v>26</v>
       </c>
-      <c r="Q19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
+      <c r="R19" t="b">
+        <v>1</v>
       </c>
       <c r="S19" t="b">
         <v>1</v>
@@ -2001,19 +1996,16 @@
       <c r="T19" t="b">
         <v>1</v>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2030,14 +2022,17 @@
       <c r="H20" t="b">
         <v>1</v>
       </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
       <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
       </c>
       <c r="N20" t="s">
         <v>24</v>
@@ -2046,27 +2041,24 @@
         <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
       </c>
       <c r="S20" t="b">
         <v>1</v>
       </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2083,14 +2075,17 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
       <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
       </c>
       <c r="N21" t="s">
         <v>24</v>
@@ -2098,11 +2093,11 @@
       <c r="O21" t="s">
         <v>25</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>26</v>
       </c>
-      <c r="R21" t="s">
-        <v>27</v>
+      <c r="R21" t="b">
+        <v>1</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
@@ -2110,19 +2105,16 @@
       <c r="T21" t="b">
         <v>1</v>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2139,14 +2131,17 @@
       <c r="H22" t="b">
         <v>1</v>
       </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
       <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -2155,27 +2150,24 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2192,14 +2184,17 @@
       <c r="H23" t="b">
         <v>1</v>
       </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
       <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
       </c>
       <c r="N23" t="s">
         <v>24</v>
@@ -2208,13 +2203,13 @@
         <v>25</v>
       </c>
       <c r="P23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" t="s">
-        <v>27</v>
+      <c r="R23" t="b">
+        <v>1</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
@@ -2222,19 +2217,16 @@
       <c r="T23" t="b">
         <v>1</v>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2251,14 +2243,17 @@
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
       <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
       </c>
       <c r="N24" t="s">
         <v>24</v>
@@ -2267,24 +2262,21 @@
         <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>33</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
         <v>141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>142</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2301,14 +2293,17 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
       <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
@@ -2317,13 +2312,13 @@
         <v>25</v>
       </c>
       <c r="P25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" t="s">
-        <v>27</v>
+      <c r="R25" t="b">
+        <v>1</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -2331,19 +2326,16 @@
       <c r="T25" t="b">
         <v>1</v>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2354,14 +2346,17 @@
       <c r="H26" t="b">
         <v>1</v>
       </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
@@ -2370,30 +2365,27 @@
         <v>25</v>
       </c>
       <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" t="s">
         <v>26</v>
       </c>
-      <c r="Q26" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" t="s">
-        <v>27</v>
+      <c r="R26" t="b">
+        <v>1</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
       </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2404,14 +2396,17 @@
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
       </c>
       <c r="N27" t="s">
         <v>24</v>
@@ -2419,11 +2414,11 @@
       <c r="O27" t="s">
         <v>25</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>26</v>
       </c>
-      <c r="R27" t="s">
-        <v>27</v>
+      <c r="R27" t="b">
+        <v>1</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -2431,19 +2426,16 @@
       <c r="T27" t="b">
         <v>1</v>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2454,14 +2446,17 @@
       <c r="H28" t="b">
         <v>1</v>
       </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
       </c>
       <c r="N28" t="s">
         <v>24</v>
@@ -2469,28 +2464,25 @@
       <c r="O28" t="s">
         <v>25</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
-        <v>27</v>
+      <c r="R28" t="b">
+        <v>1</v>
       </c>
       <c r="S28" t="b">
         <v>1</v>
       </c>
-      <c r="T28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2507,14 +2499,17 @@
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
       </c>
       <c r="N29" t="s">
         <v>24</v>
@@ -2522,11 +2517,11 @@
       <c r="O29" t="s">
         <v>25</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>26</v>
       </c>
-      <c r="R29" t="s">
-        <v>27</v>
+      <c r="R29" t="b">
+        <v>1</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
@@ -2534,19 +2529,16 @@
       <c r="T29" t="b">
         <v>1</v>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2557,14 +2549,17 @@
       <c r="H30" t="b">
         <v>1</v>
       </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
       </c>
       <c r="N30" t="s">
         <v>24</v>
@@ -2572,28 +2567,25 @@
       <c r="O30" t="s">
         <v>25</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" t="s">
-        <v>27</v>
+      <c r="R30" t="b">
+        <v>1</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
       </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2610,14 +2602,17 @@
       <c r="H31" t="b">
         <v>1</v>
       </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
       </c>
       <c r="N31" t="s">
         <v>24</v>
@@ -2626,30 +2621,27 @@
         <v>25</v>
       </c>
       <c r="P31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" t="s">
-        <v>27</v>
+      <c r="R31" t="b">
+        <v>1</v>
       </c>
       <c r="S31" t="b">
         <v>1</v>
       </c>
-      <c r="T31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2660,14 +2652,17 @@
       <c r="H32" t="b">
         <v>1</v>
       </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
       </c>
       <c r="N32" t="s">
         <v>24</v>
@@ -2675,8 +2670,8 @@
       <c r="O32" t="s">
         <v>25</v>
       </c>
-      <c r="P32" t="s">
-        <v>26</v>
+      <c r="R32" t="b">
+        <v>1</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -2684,19 +2679,16 @@
       <c r="T32" t="b">
         <v>1</v>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
         <v>148</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2707,14 +2699,17 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
       </c>
       <c r="N33" t="s">
         <v>24</v>
@@ -2722,11 +2717,11 @@
       <c r="O33" t="s">
         <v>25</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>26</v>
       </c>
-      <c r="R33" t="s">
-        <v>27</v>
+      <c r="R33" t="b">
+        <v>1</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
@@ -2734,19 +2729,16 @@
       <c r="T33" t="b">
         <v>1</v>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2757,14 +2749,17 @@
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
       </c>
       <c r="N34" t="s">
         <v>24</v>
@@ -2772,11 +2767,11 @@
       <c r="O34" t="s">
         <v>25</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>26</v>
       </c>
-      <c r="R34" t="s">
-        <v>27</v>
+      <c r="R34" t="b">
+        <v>1</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
@@ -2784,19 +2779,16 @@
       <c r="T34" t="b">
         <v>1</v>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -2807,26 +2799,29 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
       </c>
       <c r="N35" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O35" t="s">
         <v>25</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>26</v>
       </c>
-      <c r="R35" t="s">
-        <v>27</v>
+      <c r="R35" t="b">
+        <v>1</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
@@ -2834,19 +2829,16 @@
       <c r="T35" t="b">
         <v>1</v>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2857,14 +2849,17 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
       </c>
       <c r="N36" t="s">
         <v>24</v>
@@ -2872,11 +2867,11 @@
       <c r="O36" t="s">
         <v>25</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>26</v>
       </c>
-      <c r="R36" t="s">
-        <v>27</v>
+      <c r="R36" t="b">
+        <v>1</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -2884,19 +2879,16 @@
       <c r="T36" t="b">
         <v>1</v>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2907,14 +2899,17 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
       </c>
       <c r="N37" t="s">
         <v>24</v>
@@ -2922,11 +2917,11 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>26</v>
       </c>
-      <c r="R37" t="s">
-        <v>27</v>
+      <c r="R37" t="b">
+        <v>1</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
@@ -2934,19 +2929,16 @@
       <c r="T37" t="b">
         <v>1</v>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -2957,14 +2949,17 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
       </c>
       <c r="N38" t="s">
         <v>24</v>
@@ -2972,8 +2967,8 @@
       <c r="O38" t="s">
         <v>25</v>
       </c>
-      <c r="P38" t="s">
-        <v>26</v>
+      <c r="R38" t="b">
+        <v>1</v>
       </c>
       <c r="S38" t="b">
         <v>1</v>
@@ -2981,19 +2976,16 @@
       <c r="T38" t="b">
         <v>1</v>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3004,14 +2996,17 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
       </c>
       <c r="N39" t="s">
         <v>24</v>
@@ -3019,11 +3014,11 @@
       <c r="O39" t="s">
         <v>25</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>26</v>
       </c>
-      <c r="R39" t="s">
-        <v>27</v>
+      <c r="R39" t="b">
+        <v>1</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
@@ -3031,19 +3026,16 @@
       <c r="T39" t="b">
         <v>1</v>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3054,14 +3046,17 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
       </c>
       <c r="N40" t="s">
         <v>24</v>
@@ -3069,11 +3064,11 @@
       <c r="O40" t="s">
         <v>25</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>26</v>
       </c>
-      <c r="R40" t="s">
-        <v>27</v>
+      <c r="R40" t="b">
+        <v>1</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
@@ -3081,19 +3076,16 @@
       <c r="T40" t="b">
         <v>1</v>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3104,14 +3096,17 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
       </c>
       <c r="N41" t="s">
         <v>24</v>
@@ -3119,8 +3114,8 @@
       <c r="O41" t="s">
         <v>25</v>
       </c>
-      <c r="P41" t="s">
-        <v>26</v>
+      <c r="R41" t="b">
+        <v>1</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
@@ -3128,19 +3123,16 @@
       <c r="T41" t="b">
         <v>1</v>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -3151,26 +3143,29 @@
       <c r="H42" t="b">
         <v>1</v>
       </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>75</v>
       </c>
       <c r="N42" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O42" t="s">
         <v>25</v>
       </c>
       <c r="P42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
@@ -3178,19 +3173,16 @@
       <c r="T42" t="b">
         <v>1</v>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3201,49 +3193,49 @@
       <c r="H43" t="b">
         <v>1</v>
       </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>75</v>
       </c>
       <c r="N43" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O43" t="s">
         <v>25</v>
       </c>
       <c r="P43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" t="s">
-        <v>34</v>
-      </c>
-      <c r="R43" t="s">
-        <v>27</v>
+      <c r="R43" t="b">
+        <v>1</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
       </c>
       <c r="T43" t="b">
-        <v>1</v>
-      </c>
-      <c r="U43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
         <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3254,26 +3246,29 @@
       <c r="H44" t="b">
         <v>1</v>
       </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
       </c>
       <c r="N44" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s">
         <v>25</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>26</v>
       </c>
-      <c r="R44" t="s">
-        <v>27</v>
+      <c r="R44" t="b">
+        <v>1</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
@@ -3281,19 +3276,16 @@
       <c r="T44" t="b">
         <v>1</v>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3304,14 +3296,17 @@
       <c r="H45" t="b">
         <v>1</v>
       </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
       </c>
       <c r="N45" t="s">
         <v>24</v>
@@ -3320,27 +3315,24 @@
         <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R45" t="b">
+        <v>1</v>
       </c>
       <c r="S45" t="b">
         <v>1</v>
       </c>
-      <c r="T45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3351,26 +3343,29 @@
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>75</v>
       </c>
       <c r="N46" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
         <v>25</v>
       </c>
       <c r="P46" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R46" t="b">
+        <v>1</v>
       </c>
       <c r="S46" t="b">
         <v>1</v>
@@ -3378,19 +3373,16 @@
       <c r="T46" t="b">
         <v>1</v>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
         <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>126</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3401,40 +3393,40 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
       </c>
       <c r="N47" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O47" t="s">
         <v>25</v>
       </c>
-      <c r="P47" t="s">
-        <v>26</v>
+      <c r="R47" t="b">
+        <v>1</v>
       </c>
       <c r="S47" t="b">
         <v>1</v>
       </c>
-      <c r="T47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3445,14 +3437,17 @@
       <c r="H48" t="b">
         <v>1</v>
       </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>23</v>
       </c>
       <c r="N48" t="s">
         <v>24</v>
@@ -3460,533 +3455,533 @@
       <c r="O48" t="s">
         <v>25</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" t="s">
         <v>26</v>
       </c>
-      <c r="S48" t="b">
-        <v>1</v>
-      </c>
-      <c r="T48" t="b">
-        <v>1</v>
-      </c>
-      <c r="U48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R49" t="s">
-        <v>27</v>
-      </c>
-      <c r="S49" t="b">
-        <v>1</v>
-      </c>
-      <c r="T49" t="b">
-        <v>1</v>
-      </c>
-      <c r="U49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" t="s">
-        <v>27</v>
-      </c>
-      <c r="S50" t="b">
-        <v>1</v>
-      </c>
-      <c r="T50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" t="s">
-        <v>26</v>
-      </c>
-      <c r="R51" t="s">
-        <v>27</v>
-      </c>
-      <c r="S51" t="b">
-        <v>1</v>
-      </c>
-      <c r="T51" t="b">
-        <v>1</v>
-      </c>
-      <c r="U51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" t="s">
-        <v>26</v>
-      </c>
-      <c r="S52" t="b">
-        <v>1</v>
-      </c>
-      <c r="T52" t="b">
-        <v>1</v>
-      </c>
-      <c r="U52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" t="s">
-        <v>26</v>
-      </c>
-      <c r="S53" t="b">
-        <v>1</v>
-      </c>
-      <c r="T53" t="b">
-        <v>1</v>
-      </c>
-      <c r="U53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
         <v>77</v>
       </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S54" t="b">
-        <v>1</v>
-      </c>
-      <c r="T54" t="b">
-        <v>1</v>
-      </c>
-      <c r="U54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
-        <v>39</v>
-      </c>
-      <c r="O55" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" t="b">
-        <v>1</v>
-      </c>
-      <c r="T55" t="b">
-        <v>1</v>
-      </c>
-      <c r="U55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" t="s">
-        <v>26</v>
-      </c>
-      <c r="R56" t="s">
-        <v>27</v>
-      </c>
-      <c r="S56" t="b">
-        <v>1</v>
-      </c>
-      <c r="T56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>39</v>
-      </c>
-      <c r="O57" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" t="s">
-        <v>26</v>
-      </c>
-      <c r="S57" t="b">
-        <v>1</v>
-      </c>
-      <c r="T57" t="b">
-        <v>1</v>
-      </c>
-      <c r="U57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O58" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" t="s">
-        <v>26</v>
-      </c>
-      <c r="S58" t="b">
-        <v>1</v>
-      </c>
-      <c r="T58" t="b">
-        <v>1</v>
-      </c>
-      <c r="U58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
-        <v>39</v>
-      </c>
-      <c r="O59" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" t="s">
-        <v>26</v>
-      </c>
-      <c r="S59" t="b">
-        <v>1</v>
-      </c>
-      <c r="T59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>78</v>
-      </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
       </c>
       <c r="N60" t="s">
         <v>24</v>
@@ -3994,8 +3989,8 @@
       <c r="O60" t="s">
         <v>25</v>
       </c>
-      <c r="P60" t="s">
-        <v>26</v>
+      <c r="R60" t="b">
+        <v>1</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
@@ -4003,78 +3998,78 @@
       <c r="T60" t="b">
         <v>1</v>
       </c>
-      <c r="U60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" t="s">
+        <v>24</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
-        <v>24</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" t="s">
-        <v>26</v>
-      </c>
-      <c r="S61" t="b">
-        <v>1</v>
-      </c>
-      <c r="T61" t="b">
-        <v>1</v>
-      </c>
-      <c r="U61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>139</v>
-      </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>23</v>
       </c>
       <c r="N62" t="s">
         <v>24</v>
@@ -4082,8 +4077,8 @@
       <c r="O62" t="s">
         <v>25</v>
       </c>
-      <c r="P62" t="s">
-        <v>26</v>
+      <c r="R62" t="b">
+        <v>1</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -4091,19 +4086,16 @@
       <c r="T62" t="b">
         <v>1</v>
       </c>
-      <c r="U62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
         <v>35</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
       </c>
       <c r="G63">
         <v>7</v>
@@ -4111,8 +4103,11 @@
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="J63" t="b">
-        <v>0</v>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>23</v>
       </c>
       <c r="N63" t="s">
         <v>24</v>
@@ -4120,28 +4115,25 @@
       <c r="O63" t="s">
         <v>25</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>26</v>
       </c>
-      <c r="R63" t="s">
-        <v>27</v>
+      <c r="R63" t="b">
+        <v>1</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
       </c>
-      <c r="T63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>7</v>
@@ -4149,37 +4141,37 @@
       <c r="H64" t="b">
         <v>0</v>
       </c>
-      <c r="J64" t="b">
-        <v>0</v>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
       </c>
       <c r="N64" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O64" t="s">
         <v>25</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>26</v>
       </c>
-      <c r="R64" t="s">
-        <v>27</v>
+      <c r="R64" t="b">
+        <v>1</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
       </c>
-      <c r="T64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
         <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>75</v>
       </c>
       <c r="G65">
         <v>30</v>
@@ -4187,34 +4179,34 @@
       <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="J65" t="b">
-        <v>0</v>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>75</v>
       </c>
       <c r="N65" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O65" t="s">
         <v>25</v>
       </c>
       <c r="P65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>34</v>
-      </c>
-      <c r="S65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>33</v>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
       </c>
       <c r="G66">
         <v>30</v>
@@ -4222,37 +4214,37 @@
       <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="J66" t="b">
-        <v>0</v>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>75</v>
       </c>
       <c r="N66" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O66" t="s">
         <v>25</v>
       </c>
       <c r="P66" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
       </c>
       <c r="S66" t="b">
         <v>1</v>
       </c>
-      <c r="T66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
         <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -4260,8 +4252,11 @@
       <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="J67" t="b">
-        <v>0</v>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
       </c>
       <c r="N67" t="s">
         <v>24</v>
@@ -4270,24 +4265,21 @@
         <v>25</v>
       </c>
       <c r="P67" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>34</v>
-      </c>
-      <c r="S67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>33</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>30</v>
@@ -4295,40 +4287,40 @@
       <c r="H68" t="b">
         <v>0</v>
       </c>
-      <c r="J68" t="b">
-        <v>0</v>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O68" t="s">
         <v>25</v>
       </c>
       <c r="P68" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" t="s">
-        <v>34</v>
-      </c>
-      <c r="R68" t="s">
-        <v>27</v>
+      <c r="R68" t="b">
+        <v>1</v>
       </c>
       <c r="S68" t="b">
         <v>1</v>
       </c>
-      <c r="T68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
         <v>101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -4336,8 +4328,11 @@
       <c r="H69" t="b">
         <v>0</v>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>23</v>
       </c>
       <c r="N69" t="s">
         <v>24</v>
@@ -4346,27 +4341,24 @@
         <v>25</v>
       </c>
       <c r="P69" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
       </c>
       <c r="S69" t="b">
         <v>1</v>
       </c>
-      <c r="T69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -4374,8 +4366,11 @@
       <c r="H70" t="b">
         <v>0</v>
       </c>
-      <c r="J70" t="b">
-        <v>0</v>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
       </c>
       <c r="N70" t="s">
         <v>24</v>
@@ -4384,27 +4379,24 @@
         <v>25</v>
       </c>
       <c r="P70" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
       </c>
       <c r="S70" t="b">
         <v>1</v>
       </c>
-      <c r="T70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -4412,8 +4404,11 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-      <c r="J71" t="b">
-        <v>0</v>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>23</v>
       </c>
       <c r="N71" t="s">
         <v>24</v>
@@ -4421,359 +4416,359 @@
       <c r="O71" t="s">
         <v>25</v>
       </c>
-      <c r="P71" t="s">
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>38</v>
+      </c>
+      <c r="O72" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" t="s">
         <v>26</v>
       </c>
-      <c r="S71" t="b">
-        <v>1</v>
-      </c>
-      <c r="T71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="R72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O73" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" t="s">
+        <v>24</v>
+      </c>
+      <c r="O74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
         <v>37</v>
       </c>
-      <c r="C72" t="s">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
         <v>38</v>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
-        <v>39</v>
-      </c>
-      <c r="P72" t="s">
-        <v>26</v>
-      </c>
-      <c r="R72" t="s">
-        <v>27</v>
-      </c>
-      <c r="S72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
-        <v>39</v>
-      </c>
-      <c r="P73" t="s">
-        <v>26</v>
-      </c>
-      <c r="S73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>24</v>
-      </c>
-      <c r="O74" t="s">
-        <v>25</v>
-      </c>
-      <c r="P74" t="s">
-        <v>26</v>
-      </c>
-      <c r="R74" t="s">
-        <v>27</v>
-      </c>
-      <c r="S74" t="b">
-        <v>1</v>
-      </c>
-      <c r="T74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>24</v>
-      </c>
-      <c r="O75" t="s">
-        <v>25</v>
-      </c>
-      <c r="P75" t="s">
-        <v>26</v>
-      </c>
-      <c r="R75" t="s">
-        <v>27</v>
-      </c>
-      <c r="S75" t="b">
-        <v>1</v>
-      </c>
-      <c r="T75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="N76" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" t="s">
+        <v>24</v>
+      </c>
+      <c r="O78" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" t="s">
+        <v>24</v>
+      </c>
+      <c r="O79" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" t="s">
+        <v>24</v>
+      </c>
+      <c r="O80" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
         <v>38</v>
       </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>39</v>
-      </c>
-      <c r="O76" t="s">
-        <v>25</v>
-      </c>
-      <c r="P76" t="s">
-        <v>26</v>
-      </c>
-      <c r="S76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" t="s">
-        <v>78</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>24</v>
-      </c>
-      <c r="O77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P77" t="s">
-        <v>26</v>
-      </c>
-      <c r="S77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" t="s">
-        <v>25</v>
-      </c>
-      <c r="P78" t="s">
-        <v>26</v>
-      </c>
-      <c r="S78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>24</v>
-      </c>
-      <c r="O79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P79" t="s">
-        <v>26</v>
-      </c>
-      <c r="S79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
-        <v>24</v>
-      </c>
-      <c r="O80" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80" t="s">
-        <v>26</v>
-      </c>
-      <c r="S80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
       <c r="N81" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O81" t="s">
         <v>25</v>
       </c>
-      <c r="P81" t="s">
-        <v>26</v>
-      </c>
-      <c r="S81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="R81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="J82" t="b">
-        <v>0</v>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>38</v>
       </c>
       <c r="N82" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O82" t="s">
         <v>25</v>
       </c>
-      <c r="P82" t="s">
-        <v>26</v>
-      </c>
-      <c r="S82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="R82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
         <v>143</v>
       </c>
-      <c r="C83" t="s">
-        <v>144</v>
-      </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
-      <c r="J83" t="b">
-        <v>0</v>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>23</v>
       </c>
       <c r="N83" t="s">
         <v>24</v>
@@ -4781,10 +4776,7 @@
       <c r="O83" t="s">
         <v>25</v>
       </c>
-      <c r="P83" t="s">
-        <v>26</v>
-      </c>
-      <c r="S83" t="b">
+      <c r="R83" t="b">
         <v>1</v>
       </c>
     </row>
